--- a/biology/Zoologie/Dormilon_à_ventre_roux/Dormilon_à_ventre_roux.xlsx
+++ b/biology/Zoologie/Dormilon_à_ventre_roux/Dormilon_à_ventre_roux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dormilon_%C3%A0_ventre_roux</t>
+          <t>Dormilon_à_ventre_roux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Muscisaxicola capistratus
 Le Dormilon à ventre roux (Muscisaxicola capistratus) est une espèce de passereau placée dans la famille des Tyrannidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dormilon_%C3%A0_ventre_roux</t>
+          <t>Dormilon_à_ventre_roux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Photos</t>
         </is>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dormilon_%C3%A0_ventre_roux</t>
+          <t>Dormilon_à_ventre_roux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve dans l'ouest de l'Argentine, dans l'est des Andes au Chili, au sud-ouest  de la Bolivie et au sud du Pérou.
 Il niche dans l'extrême sud de l'Argentine et le Chili au nord de la Terre de Feu et migre au nord pendant l'hiver austral.
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dormilon_%C3%A0_ventre_roux</t>
+          <t>Dormilon_à_ventre_roux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son habitat naturel est les prairies tempérées.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dormilon_%C3%A0_ventre_roux</t>
+          <t>Dormilon_à_ventre_roux</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Selon Peterson
 Muscisaxicola</t>
